--- a/outputs/fft-o__Bacteroidales_pruned3-g__Ruminococcus_E_wrapper.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned3-g__Ruminococcus_E_wrapper.xlsx
@@ -348,292 +348,292 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-0.3603175382416606</v>
+        <v>-0.4341468349698143</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>-0.3463317325464276</v>
+        <v>0.5365077479707555</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.27166743401402</v>
+        <v>2.325051380100499</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-0.3637113909346256</v>
+        <v>-0.3363181265141015</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-0.338106814660218</v>
+        <v>0.9922734782192613</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>-0.5143909217375272</v>
+        <v>1.063821148522717</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-0.6501435028852868</v>
+        <v>-0.8143008425025121</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>-0.2437036588388586</v>
+        <v>1.142879543446135</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-0.6348842884176484</v>
+        <v>0.9989073172290095</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-0.6378439585262085</v>
+        <v>-0.4757865225232282</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>-0.3388706086784176</v>
+        <v>1.641298020650315</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>-0.8383296172114022</v>
+        <v>-1.314016202113824</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>-0.5302844998477473</v>
+        <v>-0.2061560376771052</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>-0.8219997134067766</v>
+        <v>-0.4803216983838796</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-0.5581856719018421</v>
+        <v>0.4630407351896138</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.09037492427179061</v>
+        <v>1.383816105227398</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-0.0577686107420457</v>
+        <v>0.792014036394131</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.14675120621961</v>
+        <v>1.385170173917961</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>-0.8635317126086339</v>
+        <v>-1.098909010964402</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>-0.3013779661859785</v>
+        <v>-0.2855016717320988</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>-1.24467488501186</v>
+        <v>-1.930691541983105</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>-0.8373463824221753</v>
+        <v>-1.295374760169565</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>-0.6389392809509924</v>
+        <v>1.215173948100074</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-2.768505932204993</v>
+        <v>-6.775757926704248</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>-0.4304910285138258</v>
+        <v>0.9727428875656494</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-0.7079456193984973</v>
+        <v>-0.6704242287176363</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>-0.6875333789126107</v>
+        <v>-0.5255384352512124</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>-0.6422874788839026</v>
+        <v>-0.758184664316657</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-0.6706994005565291</v>
+        <v>-1.605988357810234</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-0.2799389468679945</v>
+        <v>1.386939048013989</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-0.2745043465206299</v>
+        <v>1.404728036764711</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-0.2113693310034124</v>
+        <v>-0.5397648188823716</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-0.2526368165434341</v>
+        <v>-0.1126255250854596</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>-0.4107199129772994</v>
+        <v>0.6238917366112751</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.2512786647284466</v>
+        <v>1.444091304213387</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-0.5157280229821887</v>
+        <v>-0.4454665913211073</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>-0.1223752629895254</v>
+        <v>1.303216859765494</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>-0.3378271312449162</v>
+        <v>0.1121518232183797</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-0.1015326213830546</v>
+        <v>0.9840182617989661</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>-0.4110579844596112</v>
+        <v>0.1742942830699572</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-0.3867264396301951</v>
+        <v>-0.2758229151134992</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.07607794374748411</v>
+        <v>1.678061652112734</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-0.2859149322051822</v>
+        <v>0.4961699579977743</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-0.263412778239949</v>
+        <v>0.5721377210417693</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-0.9066051069782689</v>
+        <v>-0.6953846848501465</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-0.08711011938019655</v>
+        <v>1.060108962278217</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-0.03914523472085485</v>
+        <v>1.729738338950724</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-0.4348587523179165</v>
+        <v>0.001847683254245755</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-0.3575660264135129</v>
+        <v>-1.16467896649619</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>-0.3167760179652137</v>
+        <v>-0.03946118332257351</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-0.2707052090160653</v>
+        <v>0.8700376663578859</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-0.08560714230815886</v>
+        <v>0.9102419772799923</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-0.8426993123645646</v>
+        <v>-0.5700782521986268</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-0.326710788057428</v>
+        <v>1.715640846569233</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-0.3728918773007143</v>
+        <v>0.2361931756250694</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-0.4312426371863362</v>
+        <v>-0.2381675813046287</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-0.7145317638243481</v>
+        <v>-0.851046892776105</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-0.4202705972931049</v>
+        <v>1.610242130069358</v>
       </c>
     </row>
   </sheetData>
